--- a/項目管理.xlsx
+++ b/項目管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD26F1-28A6-424E-B372-E2FF89235774}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A2CE0-7D06-40F2-9FE8-889360BEC9FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <r>
       <rPr>
@@ -571,12 +571,66 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥機制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>框架設計</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計時器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -641,6 +695,21 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -724,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,7 +818,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,6 +834,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,69 +851,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1153,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9083A104-72F7-4E1F-B0A1-843D10F6B928}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1197,10 +1220,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1224,8 +1247,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1235,8 +1258,8 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1250,12 +1273,12 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="10">
         <v>0.9</v>
       </c>
       <c r="E5" s="3"/>
@@ -1265,12 +1288,12 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="10">
         <v>0.8</v>
       </c>
       <c r="E6" s="3"/>
@@ -1280,8 +1303,8 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1290,14 +1313,14 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="3"/>
@@ -1307,8 +1330,8 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1320,8 +1343,8 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1333,8 +1356,8 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1369,8 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1356,14 +1379,14 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1371,8 +1394,8 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1384,8 +1407,8 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1420,8 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1407,8 +1430,8 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1422,8 +1445,8 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="13"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1435,8 +1458,8 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="13"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1448,8 +1471,8 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="13"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1461,8 +1484,8 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="13"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1474,8 +1497,8 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1487,8 +1510,8 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1500,8 +1523,8 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="13"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1513,10 +1536,10 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="13"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
@@ -1526,10 +1549,10 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="3"/>
@@ -1539,10 +1562,10 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="13"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="3"/>
@@ -1552,8 +1575,11 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="14"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1562,15 +1588,8 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1579,10 +1598,12 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="15"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="3"/>
@@ -1592,10 +1613,10 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="15"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="2" t="s">
-        <v>39</v>
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="3"/>
@@ -1605,12 +1626,14 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="15"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1618,9 +1641,14 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="15"/>
-      <c r="B33" s="11"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1628,15 +1656,13 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="15"/>
-      <c r="B34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>66</v>
+      <c r="A34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1645,13 +1671,13 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="15"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>66</v>
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1660,12 +1686,14 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="15"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1673,10 +1701,10 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="15"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="3"/>
@@ -1686,11 +1714,9 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="15"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="5"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1699,10 +1725,14 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="15"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="3"/>
@@ -1712,10 +1742,10 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="15"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="3"/>
@@ -1725,10 +1755,10 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="15"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="3"/>
@@ -1738,10 +1768,10 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="15"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="3"/>
@@ -1751,11 +1781,8 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="15"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="13"/>
       <c r="D43" s="5"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1764,12 +1791,16 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="15"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="5"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1777,12 +1808,14 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="15"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="5"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -1790,10 +1823,10 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="15"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="3"/>
@@ -1803,10 +1836,10 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="15"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
@@ -1816,10 +1849,10 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="15"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
@@ -1829,10 +1862,10 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="15"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="3"/>
@@ -1842,10 +1875,10 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="15"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
@@ -1855,10 +1888,10 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="15"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="3"/>
@@ -1868,10 +1901,10 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="15"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="3"/>
@@ -1881,10 +1914,10 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="15"/>
-      <c r="B53" s="10"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
@@ -1894,10 +1927,10 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="15"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
@@ -1907,10 +1940,10 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="15"/>
-      <c r="B55" s="10"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="3"/>
@@ -1920,10 +1953,10 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="15"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
@@ -1933,10 +1966,10 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="15"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
@@ -1946,8 +1979,11 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="15"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1956,14 +1992,10 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="A59" s="18"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="3"/>
@@ -1973,9 +2005,11 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="13"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1984,12 +2018,10 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="13"/>
-      <c r="B61" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="A61" s="18"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
@@ -1999,10 +2031,10 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="13"/>
-      <c r="B62" s="10"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="3"/>
@@ -2012,10 +2044,10 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="13"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="3"/>
@@ -2025,10 +2057,10 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="13"/>
-      <c r="B64" s="10"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="3"/>
@@ -2038,8 +2070,11 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="13"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D65" s="5"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2048,12 +2083,10 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="13"/>
-      <c r="B66" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="A66" s="18"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="3"/>
@@ -2063,10 +2096,10 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="13"/>
-      <c r="B67" s="10"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="3"/>
@@ -2076,9 +2109,8 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="14"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="2"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="13"/>
       <c r="D68" s="5"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2086,25 +2118,157 @@
       <c r="H68" s="3"/>
       <c r="I68" s="2"/>
     </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="16"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="16"/>
+      <c r="B71" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="16"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="16"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="16"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="16"/>
+      <c r="B75" s="13"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="16"/>
+      <c r="B76" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="16"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="17"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B66:B68"/>
+  <mergeCells count="14">
+    <mergeCell ref="B76:B78"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="A29:A58"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A2:A38"/>
+    <mergeCell ref="A39:A68"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B58"/>
-    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B68"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B17:B29"/>
+    <mergeCell ref="B30:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D68">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="D2:D78">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/項目管理.xlsx
+++ b/項目管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A2CE0-7D06-40F2-9FE8-889360BEC9FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237219DA-E51B-4634-A6FC-484632AA4A58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <r>
       <rPr>
@@ -623,6 +623,10 @@
   </si>
   <si>
     <t>點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治療機制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +717,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +727,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,20 +822,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,9 +863,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9083A104-72F7-4E1F-B0A1-843D10F6B928}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1191,42 +1201,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1247,8 +1257,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1258,8 +1268,8 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="16"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1273,12 +1283,12 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>0.9</v>
       </c>
       <c r="E5" s="3"/>
@@ -1288,12 +1298,12 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>0.8</v>
       </c>
       <c r="E6" s="3"/>
@@ -1303,8 +1313,8 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1313,14 +1323,14 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="16"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="3"/>
@@ -1330,8 +1340,8 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1343,8 +1353,8 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1356,8 +1366,8 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1369,8 +1379,8 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1379,14 +1389,14 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1394,8 +1404,8 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1407,8 +1417,8 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1420,8 +1430,8 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1430,14 +1440,16 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1445,10 +1457,10 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3"/>
@@ -1458,10 +1470,10 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
@@ -1471,10 +1483,10 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3"/>
@@ -1484,10 +1496,10 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
@@ -1497,10 +1509,10 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="3"/>
@@ -1510,10 +1522,10 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="3"/>
@@ -1523,10 +1535,10 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="3"/>
@@ -1536,10 +1548,10 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
@@ -1549,10 +1561,10 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="3"/>
@@ -1562,10 +1574,10 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="3"/>
@@ -1575,10 +1587,10 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
@@ -1588,8 +1600,11 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1598,13 +1613,8 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
       <c r="D30" s="5"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1613,10 +1623,12 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="19" t="s">
-        <v>81</v>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="3"/>
@@ -1626,14 +1638,12 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="A32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1641,10 +1651,10 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>90</v>
@@ -1656,10 +1666,10 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>90</v>
@@ -1671,10 +1681,10 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>90</v>
@@ -1686,10 +1696,10 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>90</v>
@@ -1701,12 +1711,14 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1715,8 +1727,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="17"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1725,15 +1739,9 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A39" s="18"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="5"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1742,10 +1750,14 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="18"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="3"/>
@@ -1755,10 +1767,10 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="18"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="3"/>
@@ -1768,10 +1780,10 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="18"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="3"/>
@@ -1781,8 +1793,11 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="13"/>
+      <c r="C43" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1791,16 +1806,9 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="18"/>
-      <c r="B44" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="A44" s="19"/>
+      <c r="B44" s="14"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1808,12 +1816,14 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="18"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="3"/>
@@ -1823,12 +1833,14 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="18"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="5"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1836,10 +1848,10 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="18"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
@@ -1849,10 +1861,10 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="18"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
@@ -1862,10 +1874,10 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="18"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="3"/>
@@ -1875,10 +1887,10 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="18"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
@@ -1888,10 +1900,10 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="18"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="3"/>
@@ -1901,10 +1913,10 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="18"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="3"/>
@@ -1914,10 +1926,10 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="18"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
@@ -1927,10 +1939,10 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="18"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
@@ -1940,10 +1952,10 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="18"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="3"/>
@@ -1953,10 +1965,10 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="18"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
@@ -1966,10 +1978,10 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="18"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
@@ -1979,10 +1991,10 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="18"/>
-      <c r="B58" s="12"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
@@ -1992,10 +2004,10 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="18"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="3"/>
@@ -2005,10 +2017,10 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="18"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
@@ -2018,10 +2030,10 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="18"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
@@ -2031,10 +2043,10 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="18"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="3"/>
@@ -2044,10 +2056,10 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="18"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="3"/>
@@ -2057,10 +2069,10 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="18"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="3"/>
@@ -2070,10 +2082,10 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="18"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="3"/>
@@ -2083,10 +2095,10 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="18"/>
-      <c r="B66" s="12"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="3"/>
@@ -2096,10 +2108,10 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="18"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="3"/>
@@ -2109,8 +2121,11 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="18"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="13"/>
+      <c r="C68" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D68" s="5"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2119,15 +2134,8 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A69" s="19"/>
+      <c r="B69" s="14"/>
       <c r="D69" s="5"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2136,9 +2144,15 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="16"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="2"/>
+      <c r="A70" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D70" s="5"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2147,13 +2161,9 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="16"/>
-      <c r="B71" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A71" s="17"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="5"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2162,10 +2172,12 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="16"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="C72" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="3"/>
@@ -2175,10 +2187,10 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="16"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="3"/>
@@ -2188,10 +2200,10 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="16"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="3"/>
@@ -2201,8 +2213,11 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="16"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="13"/>
+      <c r="C75" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D75" s="5"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -2211,13 +2226,8 @@
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="16"/>
-      <c r="B76" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A76" s="17"/>
+      <c r="B76" s="14"/>
       <c r="D76" s="5"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -2226,10 +2236,12 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="16"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="3"/>
@@ -2241,7 +2253,9 @@
     <row r="78" spans="1:9">
       <c r="A78" s="17"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D78" s="5"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2249,25 +2263,36 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="18"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B77:B79"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A2:A38"/>
-    <mergeCell ref="A39:A68"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A2:A39"/>
+    <mergeCell ref="A40:A69"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B68"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B17:B29"/>
-    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B69"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="B31:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D78">
+  <conditionalFormatting sqref="D2:D79">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>

--- a/項目管理.xlsx
+++ b/項目管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237219DA-E51B-4634-A6FC-484632AA4A58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892B35D0-E3A7-415E-A7FA-025EF27DECA3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -627,6 +627,30 @@
   </si>
   <si>
     <t>治療機制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對話框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9083A104-72F7-4E1F-B0A1-843D10F6B928}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1488,7 +1512,9 @@
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1527,7 +1553,9 @@
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="8">
+        <v>0.8</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1630,7 +1658,9 @@
       <c r="C31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="8">
+        <v>0.8</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1643,7 +1673,9 @@
       <c r="C32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="8">
+        <v>0.8</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1729,9 +1761,11 @@
       <c r="A38" s="17"/>
       <c r="B38" s="15"/>
       <c r="C38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1739,10 +1773,14 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="18"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="15"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1750,16 +1788,14 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1767,12 +1803,14 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="19"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1780,12 +1818,14 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1793,12 +1833,14 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="19"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1806,8 +1848,9 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="19"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="5"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1816,16 +1859,16 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="19"/>
+      <c r="A45" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="B45" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>66</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -1835,12 +1878,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="19"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="C46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1851,7 +1892,7 @@
       <c r="A47" s="19"/>
       <c r="B47" s="13"/>
       <c r="C47" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
@@ -1864,7 +1905,7 @@
       <c r="A48" s="19"/>
       <c r="B48" s="13"/>
       <c r="C48" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
@@ -1875,10 +1916,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="19"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B49" s="14"/>
       <c r="D49" s="5"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1888,11 +1926,15 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="5"/>
+      <c r="B50" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1902,10 +1944,12 @@
     <row r="51" spans="1:9">
       <c r="A51" s="19"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="5"/>
+      <c r="C51" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -1916,7 +1960,7 @@
       <c r="A52" s="19"/>
       <c r="B52" s="13"/>
       <c r="C52" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="3"/>
@@ -1929,7 +1973,7 @@
       <c r="A53" s="19"/>
       <c r="B53" s="13"/>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
@@ -1942,7 +1986,7 @@
       <c r="A54" s="19"/>
       <c r="B54" s="13"/>
       <c r="C54" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
@@ -1955,7 +1999,7 @@
       <c r="A55" s="19"/>
       <c r="B55" s="13"/>
       <c r="C55" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="3"/>
@@ -1968,7 +2012,7 @@
       <c r="A56" s="19"/>
       <c r="B56" s="13"/>
       <c r="C56" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
@@ -1981,7 +2025,7 @@
       <c r="A57" s="19"/>
       <c r="B57" s="13"/>
       <c r="C57" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
@@ -1994,7 +2038,7 @@
       <c r="A58" s="19"/>
       <c r="B58" s="13"/>
       <c r="C58" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
@@ -2007,7 +2051,7 @@
       <c r="A59" s="19"/>
       <c r="B59" s="13"/>
       <c r="C59" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="3"/>
@@ -2020,7 +2064,7 @@
       <c r="A60" s="19"/>
       <c r="B60" s="13"/>
       <c r="C60" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
@@ -2033,7 +2077,7 @@
       <c r="A61" s="19"/>
       <c r="B61" s="13"/>
       <c r="C61" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
@@ -2046,7 +2090,7 @@
       <c r="A62" s="19"/>
       <c r="B62" s="13"/>
       <c r="C62" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="3"/>
@@ -2059,7 +2103,7 @@
       <c r="A63" s="19"/>
       <c r="B63" s="13"/>
       <c r="C63" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="3"/>
@@ -2072,7 +2116,7 @@
       <c r="A64" s="19"/>
       <c r="B64" s="13"/>
       <c r="C64" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="3"/>
@@ -2085,7 +2129,7 @@
       <c r="A65" s="19"/>
       <c r="B65" s="13"/>
       <c r="C65" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="3"/>
@@ -2098,7 +2142,7 @@
       <c r="A66" s="19"/>
       <c r="B66" s="13"/>
       <c r="C66" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="3"/>
@@ -2111,7 +2155,7 @@
       <c r="A67" s="19"/>
       <c r="B67" s="13"/>
       <c r="C67" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="3"/>
@@ -2124,7 +2168,7 @@
       <c r="A68" s="19"/>
       <c r="B68" s="13"/>
       <c r="C68" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="3"/>
@@ -2135,7 +2179,10 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="19"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D69" s="5"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2144,14 +2191,10 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="A70" s="19"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="3"/>
@@ -2161,9 +2204,11 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="17"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D71" s="5"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2172,12 +2217,10 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="17"/>
-      <c r="B72" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="A72" s="19"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="3"/>
@@ -2187,10 +2230,10 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="17"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="13"/>
       <c r="C73" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="3"/>
@@ -2200,11 +2243,8 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="17"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A74" s="19"/>
+      <c r="B74" s="14"/>
       <c r="D74" s="5"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -2213,10 +2253,14 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="17"/>
-      <c r="B75" s="13"/>
+      <c r="A75" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="C75" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="3"/>
@@ -2227,7 +2271,8 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="17"/>
-      <c r="B76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="5"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -2238,10 +2283,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="17"/>
       <c r="B77" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="3"/>
@@ -2254,7 +2299,7 @@
       <c r="A78" s="17"/>
       <c r="B78" s="13"/>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="3"/>
@@ -2264,9 +2309,11 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="18"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="2"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D79" s="5"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -2274,25 +2321,87 @@
       <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="17"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="17"/>
+      <c r="B82" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="17"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="18"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B82:B84"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A2:A39"/>
-    <mergeCell ref="A40:A69"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A2:A44"/>
+    <mergeCell ref="A45:A74"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B69"/>
-    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B74"/>
+    <mergeCell ref="B77:B81"/>
     <mergeCell ref="B17:B30"/>
-    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B31:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D79">
+  <conditionalFormatting sqref="D2:D84">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
